--- a/medicine/Mort/Décès_en_1943/Décès_en_1943.xlsx
+++ b/medicine/Mort/Décès_en_1943/Décès_en_1943.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1943</t>
+          <t>Décès_en_1943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1943</t>
+          <t>Décès_en_1943</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Ottorino Andreini, peintre, illustrateur et affichiste  italien (° 1872).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ottorino Andreini, peintre, illustrateur et affichiste  italien (° 1872).
 Georges Ascher, peintre polonais (° 1884).
 Alexandre Bonin, peintre français (° 11 mars 1876).
 Georges Castex, peintre français (° 1860).
@@ -546,9 +563,43 @@
 Honoré-Louis Umbricht, peintre français (° 1860).
 Valentine Val, peintre française (° 1870).
 Alice Hohermann, peintre polonaise (° 1902).
-Adolf Behrman, peintre juif polonais (° 13 juillet 1876).
-Janvier
-1er janvier : George P. Graham, chef du Parti libéral de l'Ontario.
+Adolf Behrman, peintre juif polonais (° 13 juillet 1876).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : George P. Graham, chef du Parti libéral de l'Ontario.
 2 janvier : Franz Courtens, peintre belge (° 4 février 1854).
 4 janvier : Marina Raskova, aviatrice soviétique (° 28 mars 1912).
 5 janvier : Adolphe Gumery, peintre français (° 5 avril 1861).
@@ -569,9 +620,43 @@
 29 janvier :
 François Cachoud, peintre français (° 23 octobre 1866).
 Tatiana Markus, résistante ukrainienne (° 21 septembre 1921).
-31 janvier : Ferdinand Luigini, graveur et peintre français (° 5 mai 1870).
-Février
-3 février : Aloïs Andritzki, prêtre catholique allemand, opposant au nazisme, martyr et bienheureux catholique (° 2 juillet 1914).
+31 janvier : Ferdinand Luigini, graveur et peintre français (° 5 mai 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février : Aloïs Andritzki, prêtre catholique allemand, opposant au nazisme, martyr et bienheureux catholique (° 2 juillet 1914).
 4 février : Sergueï Miloradovitch, peintre d'histoire et de scènes de genre russe puis soviétique, enseignant et académicien de l'Académie russe des beaux-arts (° 16 juillet 1851).
 7 février : Clara Novello Davies, chanteuse, enseignante et chef d'orchestre galloise (° 7 avril 1861).
 9 février :
@@ -592,9 +677,43 @@
 28 février :
 Victoriano de Santos, footballeur espagnol (° 5 mai 1906).
 Alexandre Yersin, bactériologiste franco-suisse décédé à Nha Trang (° 22 septembre 1863).
-? février : Théodore Ypsilántis, homme politique grec (° 1881).
-Mars
-3 mars : Pierre-Marie Gaurand, homme politique français (° 21 janvier 1886).
+? février : Théodore Ypsilántis, homme politique grec (° 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Pierre-Marie Gaurand, homme politique français (° 21 janvier 1886).
 5 mars : Vassili Millioti, peintre russe puis soviétique (° 17 février 1875).
 7 mars : Jean Hébert-Stevens, peintre et maître-verrier français (° 27 juillet 1888).
 8 mars : Pierre Gastiger, footballeur français (° 28 février 1893).
@@ -621,9 +740,43 @@
 26 mars : Marie Kudeříková, membre de la Résistance tchèque (° 24 mars 1921).
 28 mars : Sergueï Rachmaninov, compositeur et pianiste russe (° 1er avril 1873).
 29 mars : Wilhelm Heiss, footballeur allemand naturalisé français (° 6 décembre 1913).
-30 mars : Walter Bromme, compositeur allemand de chansons populaires et d'opérettes (° 2 avril 1885).
-Avril
-1er avril :
+30 mars : Walter Bromme, compositeur allemand de chansons populaires et d'opérettes (° 2 avril 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril :
 Vahida Maglajlić, Héros du peuple de Yougoslavie (° 17 avril 1907).
 Georges Wodli, cheminot militant communiste, syndicaliste et résistant français (° 15 juillet 1900).
 4 avril : Raoul Laparra, compositeur français (° 13 mai 1876).
@@ -636,9 +789,43 @@
 15 avril : Aristarkh Lentoulov, peintre russe (° 4 janvier 1882).
 18 avril : Timothee Adamowski, chef d'orchestre, violoniste et compositeur américain d'origine polonaise (° 24 mars 1858).
 21 avril : Rihard Jakopič, peintre serbe puis yougoslave (° 12 avril 1869).
-27 avril : Edmond Tapissier, peintre, cartonnier, lithographe  et illustrateur français (° 14 juillet 1861).
-Mai
-? mai : Fritz Zeckendorf, scénariste allemand (° 7 janvier 1886).
+27 avril : Edmond Tapissier, peintre, cartonnier, lithographe  et illustrateur français (° 14 juillet 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>? mai : Fritz Zeckendorf, scénariste allemand (° 7 janvier 1886).
 7 mai : Wade Boteler, acteur américain (° 3 octobre 1888).
 10 mai : Abraham Mordkhine, peintre impressionniste franco-russe (° 10 mai 1873).
 12 mai : Antony Damien, peintre français postimpressionniste (° 1858).
@@ -649,9 +836,43 @@
 23 mai : William Aberhart, premier ministre de l'Alberta alors qu'il était en fonction (° 30 décembre 1878).
 24 mai : Nat Butler, coureur cycliste sur piste américain (° 6 janvier 1870).
 25 mai : Nils von Dardel, peintre suédois (° 25 octobre 1888).
-27 mai : Henry Ryder, compositeur, chef d'orchestre et professeur de musique français (° 9 novembre 1885).
-Juin
-1er juin :
+27 mai : Henry Ryder, compositeur, chef d'orchestre et professeur de musique français (° 9 novembre 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin :
 René Birr, cheminot, et résistant alsacien (° 2 novembre 1904).
 Leslie Howard, acteur, réalisateur et producteur de cinéma britannique (° 3 avril 1893).
 6 juin : Nakamura Fusetsu, peintre japonais (° 19 août 1866).
@@ -664,9 +885,43 @@
 16 juin : Jean Émile Laboureur, peintre, dessinateur, graveur, aquafortiste, lithographe et illustrateur français (° 16 août 1877).
 27 juin :
 René Delame, peintre et industriel français (° 11 juillet 1861).
-Nanic Osterlind, aquarelliste français (° 11 février 1909).
-Juillet
-2 juillet :
+Nanic Osterlind, aquarelliste français (° 11 février 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet :
 Frédéric Dufaux,  peintre suisse  (° 12 juillet 1852).
 Robert James Manion, médecin et ancien chef du Parti conservateur du Canada (° 19 novembre 1881).
 3 juillet  : Yvan Kyrla, poète et acteur soviétique (° 17 mars 1909).
@@ -693,9 +948,43 @@
 Charles Hazelius Sternberg, paléontologue américain (° 15 juin 1850).
 22 juillet : Eduard Zachert, homme politique allemand, résistant au nazisme (° 8 mars 1881).
 27 juillet : Harold Austin, joueur de cricket et homme politique barbadien (° 15 juillet 1877).
-30 juillet : Benjamin Dale, compositeur anglais (° 17 juillet 1885).
-Août
-1er août : Lin Sen, homme d'État chinois (° 16 mars 1868).
+30 juillet : Benjamin Dale, compositeur anglais (° 17 juillet 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Lin Sen, homme d'État chinois (° 16 mars 1868).
 4 août : Helena Emingerová, illustratrice, graphiste et peintre austro-hongroise puis tchécoslovaque (° 17 août 1858).
 6 août : René Hanin, peintre français (° 25 février 1871).
 8 août : Plinio Nomellini, peintre italien du divisionnisme (° 6 août 1866).
@@ -709,9 +998,43 @@
 17 août : Henri-Jules Barjou, peintre, aquarelliste et graveur à l'eau-forte français (° 29 avril 1875).
 24 août : Antonio Alice, peintre argentin (° 23 février 1886).
 27 août : Salomon Garf, peintre néerlandais (° 6 décembre 1879).
-29 août : Margarete Zuelzer, zoologiste allemande (° 2 février 1877).
-Septembre
-5 septembre : John Walter Berry, homme politique canadien (° 18 décembre 1868).
+29 août : Margarete Zuelzer, zoologiste allemande (° 2 février 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5 septembre : John Walter Berry, homme politique canadien (° 18 décembre 1868).
 8 septembre : Théodore Dubé, peintre français d'origine canadienne (° 7 avril 1861).
 9 septembre : Chaïm Soutine, peintre français (° 9 juin 1893).
 14 septembre : Lloyd Loar, luthier américain (° 9 janvier 1886).
@@ -723,9 +1046,43 @@
 Lucien Jacob, chef d'un groupe de résistants français bateliers du Rhin (° 6 novembre 1902).
 Charles Lieby, résistant français, batelier du Rhin (° 31 octobre 1908).
 Joseph-Louis Metzger, résistant français (° 5 décembre 1905).
-Emile Wendling, résistant français batelier du Rhin (° 10 mai 1913).
-Octobre
-1er octobre :
+Emile Wendling, résistant français batelier du Rhin (° 10 mai 1913).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre :
 Paul Manauthon, résistant français (° 22 septembre 1913).
 Alfred Marzin, peintre français (° 9 février 1880).
 2 octobre : Robert Nathaniel Dett, organiste, pianiste et compositeur américano-canadien (° 11 octobre 1882).
@@ -745,9 +1102,43 @@
 Théodore, Jean Gerhards dit Théo, résistant français alsacien (° 1er février 1900).
 Percy Goetschius, professeur de composition américain (°30 août 1853).
 30 octobre : Beatrice Hastings, poétesse et critique d'art britannique (° 27 janvier 1879).
-31 octobre : Joanny-Philippe Lagrula, astronome français (° 23 octobre 1870).
-Novembre
-3 novembre :
+31 octobre : Joanny-Philippe Lagrula, astronome français (° 23 octobre 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 novembre :
 Henri Deluermoz, peintre et illustrateur français  (° 9 décembre 1876).
 Lucie Manvel, comédienne de théâtre française  (° 1er mai 1863).
 4 novembre : Joseph Meissonnier, peintre français  (° 4 mai 1864).
@@ -762,9 +1153,43 @@
 27 novembre : Simon Srugi, frère salésien, enseignant, infirmier, vénérable catholique (° 27 juin 1877).
 ? novembre :
 Jules Agard, peintre et sculpteur français (° 6 octobre 1871).
-Karl Dahlheimer, footballeur allemand (° 13 décembre 1906).
-Décembre
-2 décembre : Jaap Meijer, coureur cycliste néerlandais (° 20 avril 1905).
+Karl Dahlheimer, footballeur allemand (° 13 décembre 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1943</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1943</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Jaap Meijer, coureur cycliste néerlandais (° 20 avril 1905).
 4 décembre :
 Camillo Olivetti, ingénieur et chef d'entreprise italien, fondateur de la société Olivetti (° 13 août 1868).
 Firmin Baes, peintre belge (° 19 avril 1874).
